--- a/Spreadsheets/2020-08-11_main.xlsx
+++ b/Spreadsheets/2020-08-11_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\covid19_toolkit\covid19_toolkit\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6835C7FB-4C1B-4BEF-8D8A-6A40BEDBE909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E41CAE9-8CE9-492F-B51F-4690ACF8DEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8910" yWindow="2325" windowWidth="19560" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3130,7 +3130,7 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
